--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_1.xlsx
@@ -478,342 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_0</t>
+          <t>model_5_1_23</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0591300692695893</v>
+        <v>0.4761419077363901</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.310771856173981</v>
+        <v>-4.095801797538899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9032882894969954</v>
+        <v>0.5396644167337645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6544943065998772</v>
+        <v>-1.263026450368378</v>
       </c>
       <c r="F2" t="n">
-        <v>1.172144889831543</v>
+        <v>0.5797566175460815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4616808295249939</v>
+        <v>3.013367652893066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.129447266459465</v>
+        <v>0.4783340096473694</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3053354322910309</v>
+        <v>1.82040810585022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_1</t>
+          <t>model_5_1_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1000414405112806</v>
+        <v>0.4765386897312088</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.519450548025795</v>
+        <v>-4.10249486835295</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05515018447572362</v>
+        <v>0.5626151518461262</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1732921922206923</v>
+        <v>-1.251681194293142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9959889650344849</v>
+        <v>0.5793174505233765</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7031688094139099</v>
+        <v>3.017325401306152</v>
       </c>
       <c r="H3" t="n">
-        <v>1.412303566932678</v>
+        <v>0.4544859230518341</v>
       </c>
       <c r="I3" t="n">
-        <v>1.036879301071167</v>
+        <v>1.81128191947937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_2</t>
+          <t>model_5_1_24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.128292278350092</v>
+        <v>0.4766864133483077</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.478373515216011</v>
+        <v>-4.083338424558931</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07688353424492234</v>
+        <v>0.5285503298378746</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.183865737176413</v>
+        <v>-1.264931455587787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9647236466407776</v>
+        <v>0.5791538953781128</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6949619054794312</v>
+        <v>3.0059974193573</v>
       </c>
       <c r="H4" t="n">
-        <v>1.441393375396729</v>
+        <v>0.4898826479911804</v>
       </c>
       <c r="I4" t="n">
-        <v>1.046223521232605</v>
+        <v>1.821940422058105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_3</t>
+          <t>model_5_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1379159589206225</v>
+        <v>0.4774240316017642</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.29505632496972</v>
+        <v>-4.101403871988448</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1587965824862123</v>
+        <v>0.5767565686652105</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2203080125933214</v>
+        <v>-1.242667207831032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9540730714797974</v>
+        <v>0.5783376097679138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6583360433578491</v>
+        <v>3.016680240631104</v>
       </c>
       <c r="H5" t="n">
-        <v>1.551032781600952</v>
+        <v>0.4397916197776794</v>
       </c>
       <c r="I5" t="n">
-        <v>1.078428864479065</v>
+        <v>1.804031014442444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_4</t>
+          <t>model_5_1_22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1672923911930778</v>
+        <v>0.4777693409269723</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.279765668242344</v>
+        <v>-4.090401523272354</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2187550371139921</v>
+        <v>0.5559837331558601</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2612123264861697</v>
+        <v>-1.251003887440886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9215620160102844</v>
+        <v>0.577955424785614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6552810072898865</v>
+        <v>3.010174036026001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.631286382675171</v>
+        <v>0.4613766372203827</v>
       </c>
       <c r="I6" t="n">
-        <v>1.114577293395996</v>
+        <v>1.810737013816833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_5</t>
+          <t>model_5_1_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1700613794514916</v>
+        <v>0.481233901901883</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.174265768079131</v>
+        <v>-4.075485473202187</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3419945548909291</v>
+        <v>0.5971623707855923</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3364234846444722</v>
+        <v>-1.220171355828374</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9184975028038025</v>
+        <v>0.5741211771965027</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6342027187347412</v>
+        <v>3.00135350227356</v>
       </c>
       <c r="H7" t="n">
-        <v>1.796240925788879</v>
+        <v>0.4185879826545715</v>
       </c>
       <c r="I7" t="n">
-        <v>1.181044101715088</v>
+        <v>1.785935163497925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_6</t>
+          <t>model_5_1_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1848404276260303</v>
+        <v>0.4824468393807838</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.979799533042201</v>
+        <v>-4.066450278644949</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5505782841738858</v>
+        <v>0.6184595120635119</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4618144226817344</v>
+        <v>-1.203710734548255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9021414518356323</v>
+        <v>0.5727788209915161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5953493118286133</v>
+        <v>2.996010780334473</v>
       </c>
       <c r="H8" t="n">
-        <v>2.075427055358887</v>
+        <v>0.3964581489562988</v>
       </c>
       <c r="I8" t="n">
-        <v>1.291856527328491</v>
+        <v>1.772693753242493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_7</t>
+          <t>model_5_1_18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1961884300698483</v>
+        <v>0.4849467135075098</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.967892374160748</v>
+        <v>-4.05205699845357</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5934301915333002</v>
+        <v>0.6187793465412391</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4909320851079582</v>
+        <v>-1.197910783048083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8895825743675232</v>
+        <v>0.5700122117996216</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5929703116416931</v>
+        <v>2.987499237060547</v>
       </c>
       <c r="H9" t="n">
-        <v>2.132783889770508</v>
+        <v>0.3961258232593536</v>
       </c>
       <c r="I9" t="n">
-        <v>1.317588686943054</v>
+        <v>1.768028259277344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_8</t>
+          <t>model_5_1_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2114889246170331</v>
+        <v>0.4869863644246838</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.849046759157065</v>
+        <v>-4.031796710299143</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6260879426866124</v>
+        <v>0.6398672675244793</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4999841120845456</v>
+        <v>-1.177208955692927</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8726493120193481</v>
+        <v>0.567754864692688</v>
       </c>
       <c r="G10" t="n">
-        <v>0.569225549697876</v>
+        <v>2.975518226623535</v>
       </c>
       <c r="H10" t="n">
-        <v>2.176495790481567</v>
+        <v>0.3742133975028992</v>
       </c>
       <c r="I10" t="n">
-        <v>1.325588345527649</v>
+        <v>1.751375436782837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_9</t>
+          <t>model_5_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.392492315730838</v>
+        <v>0.4893515117463689</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.786502568226629</v>
+        <v>-4.00193312499606</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4362339009903784</v>
+        <v>0.6588720022438006</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3571805814334812</v>
+        <v>-1.154031129753027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6723319888114929</v>
+        <v>0.5651373863220215</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5567295551300049</v>
+        <v>2.957858800888062</v>
       </c>
       <c r="H11" t="n">
-        <v>1.922378778457642</v>
+        <v>0.3544656038284302</v>
       </c>
       <c r="I11" t="n">
-        <v>1.199387788772583</v>
+        <v>1.732730865478516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_11</t>
+          <t>model_5_1_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3977893516798018</v>
+        <v>0.4915605992622745</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.1250194898985</v>
+        <v>-3.993904407357566</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5065835081399923</v>
+        <v>0.6598769432057522</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4478384408382872</v>
+        <v>-1.150296132732791</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6664696931838989</v>
+        <v>0.5626925826072693</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6243635416030884</v>
+        <v>2.953111171722412</v>
       </c>
       <c r="H12" t="n">
-        <v>2.016540765762329</v>
+        <v>0.3534213602542877</v>
       </c>
       <c r="I12" t="n">
-        <v>1.279505372047424</v>
+        <v>1.729726433753967</v>
       </c>
     </row>
     <row r="13">
@@ -823,431 +823,431 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3978125937657557</v>
+        <v>0.4951897045390933</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.812106962939242</v>
+        <v>-3.936097288591609</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6413477725202257</v>
+        <v>0.6820427447052408</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5064387337659564</v>
+        <v>-1.114326434929588</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6664440035820007</v>
+        <v>0.5586762428283691</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5618451237678528</v>
+        <v>2.918927431106567</v>
       </c>
       <c r="H13" t="n">
-        <v>2.196920871734619</v>
+        <v>0.3303889036178589</v>
       </c>
       <c r="I13" t="n">
-        <v>1.331292510032654</v>
+        <v>1.700791954994202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_10</t>
+          <t>model_5_1_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4053493077718033</v>
+        <v>0.4958184457278003</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.066366063598722</v>
+        <v>-3.944596768503607</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3985195722259749</v>
+        <v>0.6810935014025693</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.36379650314931</v>
+        <v>-1.118210469596824</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6581031084060669</v>
+        <v>0.557980477809906</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6126449108123779</v>
+        <v>2.923953294754028</v>
       </c>
       <c r="H14" t="n">
-        <v>1.871898651123047</v>
+        <v>0.3313752412796021</v>
       </c>
       <c r="I14" t="n">
-        <v>1.20523464679718</v>
+        <v>1.703916311264038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_13</t>
+          <t>model_5_1_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4057301555138788</v>
+        <v>0.4963087244026392</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.928673854418048</v>
+        <v>-3.905912166575102</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.63303717757258</v>
+        <v>0.6826661139233883</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5144678558983036</v>
+        <v>-1.102195859506671</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6576815843582153</v>
+        <v>0.5574377775192261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5851346254348755</v>
+        <v>2.901077508926392</v>
       </c>
       <c r="H15" t="n">
-        <v>2.185797214508057</v>
+        <v>0.3297411799430847</v>
       </c>
       <c r="I15" t="n">
-        <v>1.338388085365295</v>
+        <v>1.691033840179443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_14</t>
+          <t>model_5_1_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4093297125981434</v>
+        <v>0.4974854132247175</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.072204150499882</v>
+        <v>-3.879881009805841</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6491275759356989</v>
+        <v>0.6867885265791033</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.543114108059352</v>
+        <v>-1.089563774922466</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6536979675292969</v>
+        <v>0.5561355352401733</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6138112545013428</v>
+        <v>2.885684251785278</v>
       </c>
       <c r="H16" t="n">
-        <v>2.207334041595459</v>
+        <v>0.3254575729370117</v>
       </c>
       <c r="I16" t="n">
-        <v>1.363703846931458</v>
+        <v>1.680872678756714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_15</t>
+          <t>model_5_1_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4114056876454093</v>
+        <v>0.503617293770444</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.723133703523658</v>
+        <v>-3.784354494924904</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7484173538608381</v>
+        <v>0.6965871710566809</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.691791446801177</v>
+        <v>-1.046429815081998</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6514005064964294</v>
+        <v>0.5493493676185608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7438637614250183</v>
+        <v>2.829195261001587</v>
       </c>
       <c r="H17" t="n">
-        <v>2.340231895446777</v>
+        <v>0.3152758181095123</v>
       </c>
       <c r="I17" t="n">
-        <v>1.495095252990723</v>
+        <v>1.646174907684326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_16</t>
+          <t>model_5_1_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4157998067328388</v>
+        <v>0.5086602053857217</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.7066290044842</v>
+        <v>-3.647580259934213</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7635140291787974</v>
+        <v>0.6885611307976636</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7005770838175391</v>
+        <v>-0.998075093298544</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6465374827384949</v>
+        <v>0.5437683463096619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7405662536621094</v>
+        <v>2.74831485748291</v>
       </c>
       <c r="H18" t="n">
-        <v>2.360438585281372</v>
+        <v>0.3236156702041626</v>
       </c>
       <c r="I18" t="n">
-        <v>1.502859354019165</v>
+        <v>1.607277870178223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_17</t>
+          <t>model_5_1_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.420296438153998</v>
+        <v>0.5173289973897821</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.727691604476164</v>
+        <v>-3.544159442224899</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7652566936686795</v>
+        <v>0.7020495284289701</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.7043404149628421</v>
+        <v>-0.9496267564050509</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6415610313415527</v>
+        <v>0.5341745615005493</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7447744607925415</v>
+        <v>2.68715763092041</v>
       </c>
       <c r="H19" t="n">
-        <v>2.362771034240723</v>
+        <v>0.3095998764038086</v>
       </c>
       <c r="I19" t="n">
-        <v>1.506185173988342</v>
+        <v>1.568305373191833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_19</t>
+          <t>model_5_1_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4215027513253756</v>
+        <v>0.5311261434811714</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.64541186573832</v>
+        <v>-3.397742220819999</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8468477859662717</v>
+        <v>0.7260937488938827</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7526458232709916</v>
+        <v>-0.8780319028297687</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6402259469032288</v>
+        <v>0.5189051628112793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7283353209495544</v>
+        <v>2.600574731826782</v>
       </c>
       <c r="H20" t="n">
-        <v>2.47197961807251</v>
+        <v>0.2846155762672424</v>
       </c>
       <c r="I20" t="n">
-        <v>1.548874378204346</v>
+        <v>1.510713458061218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_18</t>
+          <t>model_5_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4224190647437025</v>
+        <v>0.5431274173164427</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.654032292515042</v>
+        <v>-3.252826505352473</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.8041329330242921</v>
+        <v>0.7389773314111288</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7232324342365557</v>
+        <v>-0.8138011557926845</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6392119526863098</v>
+        <v>0.5056233406066895</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7300576567649841</v>
+        <v>2.514879941940308</v>
       </c>
       <c r="H21" t="n">
-        <v>2.414806365966797</v>
+        <v>0.2712282538414001</v>
       </c>
       <c r="I21" t="n">
-        <v>1.522880673408508</v>
+        <v>1.45904552936554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_21</t>
+          <t>model_5_1_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4328019041098097</v>
+        <v>0.5567939767741518</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.669628477522076</v>
+        <v>-3.096475773853744</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.8889396239869589</v>
+        <v>0.7575777931417222</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.785544194453103</v>
+        <v>-0.7416414454960312</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6277211904525757</v>
+        <v>0.4904984831809998</v>
       </c>
       <c r="G22" t="n">
-        <v>0.733173668384552</v>
+        <v>2.422422885894775</v>
       </c>
       <c r="H22" t="n">
-        <v>2.528319120407104</v>
+        <v>0.2519005239009857</v>
       </c>
       <c r="I22" t="n">
-        <v>1.577947735786438</v>
+        <v>1.400999188423157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_20</t>
+          <t>model_5_1_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4463213846070673</v>
+        <v>0.5743209130883771</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.614278562773512</v>
+        <v>-2.896958904612423</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7861338302539789</v>
+        <v>0.7774690283001513</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.7056453999637275</v>
+        <v>-0.6519018806129224</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6127591133117676</v>
+        <v>0.4711012840270996</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7221150994300842</v>
+        <v>2.304439783096313</v>
       </c>
       <c r="H23" t="n">
-        <v>2.390714883804321</v>
+        <v>0.2312316000461578</v>
       </c>
       <c r="I23" t="n">
-        <v>1.507338523864746</v>
+        <v>1.328811645507812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_22</t>
+          <t>model_5_1_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4478543397212785</v>
+        <v>0.5935203787152864</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.673577438444823</v>
+        <v>-2.709629418759154</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.8915644110615706</v>
+        <v>0.8165541097718615</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7878869170677263</v>
+        <v>-0.555238378376955</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6110625863075256</v>
+        <v>0.4498531520366669</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7339627146720886</v>
+        <v>2.193663835525513</v>
       </c>
       <c r="H24" t="n">
-        <v>2.531832218170166</v>
+        <v>0.1906183511018753</v>
       </c>
       <c r="I24" t="n">
-        <v>1.580018043518066</v>
+        <v>1.251054167747498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_23</t>
+          <t>model_5_1_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4733685410203854</v>
+        <v>0.609044204839011</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.749480113249165</v>
+        <v>-2.509283556251762</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7931810268971917</v>
+        <v>0.8226779995473522</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.7268508234189821</v>
+        <v>-0.4735440454541375</v>
       </c>
       <c r="F25" t="n">
-        <v>0.582825779914856</v>
+        <v>0.4326728284358978</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7491277456283569</v>
+        <v>2.075190544128418</v>
       </c>
       <c r="H25" t="n">
-        <v>2.400147438049316</v>
+        <v>0.1842550337314606</v>
       </c>
       <c r="I25" t="n">
-        <v>1.526078343391418</v>
+        <v>1.185338139533997</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_1_24</t>
+          <t>model_5_1_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5062174177092529</v>
+        <v>0.6311419034690847</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.49380866257099</v>
+        <v>-2.312588799739783</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.5915048432230792</v>
+        <v>0.8776237462809896</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.672196190648128</v>
+        <v>-0.3635933109126874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.546471893787384</v>
+        <v>0.4082172214984894</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8978407979011536</v>
+        <v>1.958876729011536</v>
       </c>
       <c r="H26" t="n">
-        <v>2.13020658493042</v>
+        <v>0.127160981297493</v>
       </c>
       <c r="I26" t="n">
-        <v>1.477778196334839</v>
+        <v>1.096892356872559</v>
       </c>
     </row>
   </sheetData>
